--- a/criterios_por_ano.xlsx
+++ b/criterios_por_ano.xlsx
@@ -517,49 +517,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.63</v>
+        <v>30.43</v>
       </c>
       <c r="C2" t="n">
-        <v>61.44</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>14.11</v>
+        <v>39.58</v>
       </c>
       <c r="E2" t="n">
-        <v>99.06</v>
+        <v>99.55</v>
       </c>
       <c r="F2" t="n">
-        <v>80.56</v>
+        <v>80.95999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>89.34</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>100</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>4.08</v>
+        <v>44.53</v>
       </c>
       <c r="J2" t="n">
-        <v>59.56</v>
+        <v>65.37</v>
       </c>
       <c r="K2" t="n">
-        <v>57.68</v>
+        <v>61.77</v>
       </c>
       <c r="L2" t="n">
-        <v>18.81</v>
+        <v>44.98</v>
       </c>
       <c r="M2" t="n">
-        <v>88.40000000000001</v>
+        <v>88.45999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>38.56</v>
+        <v>50.97</v>
       </c>
       <c r="O2" t="n">
-        <v>19.44</v>
+        <v>57.42</v>
       </c>
       <c r="P2" t="n">
-        <v>86.83</v>
+        <v>93.7</v>
       </c>
     </row>
     <row r="3">
@@ -572,46 +572,46 @@
         <v>0.37</v>
       </c>
       <c r="C3" t="n">
-        <v>62.01</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>10.06</v>
+        <v>9.98</v>
       </c>
       <c r="E3" t="n">
-        <v>97.58</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>83.98999999999999</v>
+        <v>83.92</v>
       </c>
       <c r="G3" t="n">
-        <v>90.69</v>
+        <v>90.76000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>97.23</v>
       </c>
       <c r="I3" t="n">
-        <v>6.15</v>
+        <v>6.65</v>
       </c>
       <c r="J3" t="n">
-        <v>62.57</v>
+        <v>62.66</v>
       </c>
       <c r="K3" t="n">
-        <v>56.61</v>
+        <v>56.56</v>
       </c>
       <c r="L3" t="n">
-        <v>16.76</v>
+        <v>17.01</v>
       </c>
       <c r="M3" t="n">
-        <v>87.90000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="N3" t="n">
-        <v>43.2</v>
+        <v>43.07</v>
       </c>
       <c r="O3" t="n">
-        <v>18.62</v>
+        <v>19.04</v>
       </c>
       <c r="P3" t="n">
-        <v>90.13</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="4">
@@ -624,7 +624,7 @@
         <v>0.19</v>
       </c>
       <c r="C4" t="n">
-        <v>55.56</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
         <v>10.54</v>
@@ -639,7 +639,7 @@
         <v>88.89</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>99.04000000000001</v>
       </c>
       <c r="I4" t="n">
         <v>4.79</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>43.8</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
         <v>4.65</v>
@@ -691,7 +691,7 @@
         <v>83.33</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>99.22</v>
       </c>
       <c r="I5" t="n">
         <v>5.81</v>

--- a/criterios_por_ano.xlsx
+++ b/criterios_por_ano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,208 +513,364 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30.43</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>24.32</v>
       </c>
       <c r="D2" t="n">
-        <v>39.58</v>
+        <v>6.84</v>
       </c>
       <c r="E2" t="n">
-        <v>99.55</v>
+        <v>60.98</v>
       </c>
       <c r="F2" t="n">
-        <v>80.95999999999999</v>
+        <v>45.64</v>
       </c>
       <c r="G2" t="n">
-        <v>94.90000000000001</v>
+        <v>99.52</v>
       </c>
       <c r="H2" t="n">
-        <v>95.34999999999999</v>
+        <v>90.01000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>44.53</v>
+        <v>85.3</v>
       </c>
       <c r="J2" t="n">
-        <v>65.37</v>
+        <v>37.73</v>
       </c>
       <c r="K2" t="n">
-        <v>61.77</v>
+        <v>0.59</v>
       </c>
       <c r="L2" t="n">
-        <v>44.98</v>
+        <v>0.91</v>
       </c>
       <c r="M2" t="n">
-        <v>88.45999999999999</v>
+        <v>42.81</v>
       </c>
       <c r="N2" t="n">
-        <v>50.97</v>
+        <v>0.91</v>
       </c>
       <c r="O2" t="n">
-        <v>57.42</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>93.7</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.37</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>32.22</v>
       </c>
       <c r="D3" t="n">
-        <v>9.98</v>
+        <v>4.37</v>
       </c>
       <c r="E3" t="n">
-        <v>97.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>83.92</v>
+        <v>31.51</v>
       </c>
       <c r="G3" t="n">
-        <v>90.76000000000001</v>
+        <v>99.05</v>
       </c>
       <c r="H3" t="n">
-        <v>97.23</v>
+        <v>83.33</v>
       </c>
       <c r="I3" t="n">
-        <v>6.65</v>
+        <v>62.54</v>
       </c>
       <c r="J3" t="n">
-        <v>62.66</v>
+        <v>36.9</v>
       </c>
       <c r="K3" t="n">
-        <v>56.56</v>
+        <v>9.84</v>
       </c>
       <c r="L3" t="n">
-        <v>17.01</v>
+        <v>6.03</v>
       </c>
       <c r="M3" t="n">
-        <v>87.8</v>
+        <v>48.89</v>
       </c>
       <c r="N3" t="n">
-        <v>43.07</v>
+        <v>5.4</v>
       </c>
       <c r="O3" t="n">
-        <v>19.04</v>
+        <v>64.84</v>
       </c>
       <c r="P3" t="n">
-        <v>90.2</v>
+        <v>98.97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.19</v>
+        <v>0.44</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>49.85</v>
       </c>
       <c r="D4" t="n">
-        <v>10.54</v>
+        <v>4.69</v>
       </c>
       <c r="E4" t="n">
-        <v>99.81</v>
+        <v>99.27</v>
       </c>
       <c r="F4" t="n">
-        <v>80.27</v>
+        <v>45.16</v>
       </c>
       <c r="G4" t="n">
-        <v>88.89</v>
+        <v>99.70999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>99.04000000000001</v>
+        <v>80.65000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>4.79</v>
+        <v>64.37</v>
       </c>
       <c r="J4" t="n">
-        <v>52.11</v>
+        <v>37.1</v>
       </c>
       <c r="K4" t="n">
-        <v>53.07</v>
+        <v>12.61</v>
       </c>
       <c r="L4" t="n">
-        <v>16.48</v>
+        <v>12.32</v>
       </c>
       <c r="M4" t="n">
-        <v>79.89</v>
+        <v>59.68</v>
       </c>
       <c r="N4" t="n">
-        <v>41</v>
+        <v>6.16</v>
       </c>
       <c r="O4" t="n">
-        <v>21.26</v>
+        <v>70.67</v>
       </c>
       <c r="P4" t="n">
-        <v>95.79000000000001</v>
+        <v>99.56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>30.43</v>
+      </c>
+      <c r="C5" t="n">
+        <v>61.02</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.58</v>
+      </c>
+      <c r="E5" t="n">
+        <v>99.55</v>
+      </c>
+      <c r="F5" t="n">
+        <v>80.95999999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>95.34999999999999</v>
+      </c>
+      <c r="I5" t="n">
+        <v>44.53</v>
+      </c>
+      <c r="J5" t="n">
+        <v>65.37</v>
+      </c>
+      <c r="K5" t="n">
+        <v>61.77</v>
+      </c>
+      <c r="L5" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="M5" t="n">
+        <v>88.45999999999999</v>
+      </c>
+      <c r="N5" t="n">
+        <v>50.97</v>
+      </c>
+      <c r="O5" t="n">
+        <v>57.42</v>
+      </c>
+      <c r="P5" t="n">
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C6" t="n">
+        <v>62.29</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="E6" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>83.92</v>
+      </c>
+      <c r="G6" t="n">
+        <v>90.76000000000001</v>
+      </c>
+      <c r="H6" t="n">
+        <v>97.23</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="J6" t="n">
+        <v>62.66</v>
+      </c>
+      <c r="K6" t="n">
+        <v>56.56</v>
+      </c>
+      <c r="L6" t="n">
+        <v>17.01</v>
+      </c>
+      <c r="M6" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="N6" t="n">
+        <v>43.07</v>
+      </c>
+      <c r="O6" t="n">
+        <v>19.04</v>
+      </c>
+      <c r="P6" t="n">
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C7" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="E7" t="n">
+        <v>99.81</v>
+      </c>
+      <c r="F7" t="n">
+        <v>80.27</v>
+      </c>
+      <c r="G7" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="H7" t="n">
+        <v>99.04000000000001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="J7" t="n">
+        <v>52.11</v>
+      </c>
+      <c r="K7" t="n">
+        <v>53.07</v>
+      </c>
+      <c r="L7" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="M7" t="n">
+        <v>79.89</v>
+      </c>
+      <c r="N7" t="n">
+        <v>41</v>
+      </c>
+      <c r="O7" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="P7" t="n">
+        <v>95.79000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C8" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="E8" t="n">
         <v>100</v>
       </c>
-      <c r="D5" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="F8" t="n">
         <v>88.37</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G8" t="n">
         <v>83.33</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H8" t="n">
         <v>99.22</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I8" t="n">
         <v>5.81</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J8" t="n">
         <v>56.59</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K8" t="n">
         <v>42.25</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L8" t="n">
         <v>13.18</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M8" t="n">
         <v>67.83</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N8" t="n">
         <v>53.1</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O8" t="n">
         <v>16.28</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P8" t="n">
         <v>97.29000000000001</v>
       </c>
     </row>

--- a/criterios_por_ano.xlsx
+++ b/criterios_por_ano.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/criterios_por_ano.xlsx
+++ b/criterios_por_ano.xlsx
@@ -520,28 +520,28 @@
         <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>24.32</v>
+        <v>24.37</v>
       </c>
       <c r="D2" t="n">
-        <v>6.84</v>
+        <v>6.72</v>
       </c>
       <c r="E2" t="n">
-        <v>60.98</v>
+        <v>60.96</v>
       </c>
       <c r="F2" t="n">
-        <v>45.64</v>
+        <v>45.65</v>
       </c>
       <c r="G2" t="n">
         <v>99.52</v>
       </c>
       <c r="H2" t="n">
-        <v>90.01000000000001</v>
+        <v>89.97</v>
       </c>
       <c r="I2" t="n">
-        <v>85.3</v>
+        <v>85.28</v>
       </c>
       <c r="J2" t="n">
-        <v>37.73</v>
+        <v>37.81</v>
       </c>
       <c r="K2" t="n">
         <v>0.59</v>
@@ -550,13 +550,13 @@
         <v>0.91</v>
       </c>
       <c r="M2" t="n">
-        <v>42.81</v>
+        <v>42.88</v>
       </c>
       <c r="N2" t="n">
         <v>0.91</v>
       </c>
       <c r="O2" t="n">
-        <v>70.81999999999999</v>
+        <v>70.77</v>
       </c>
       <c r="P2" t="n">
         <v>99.2</v>
@@ -587,10 +587,10 @@
         <v>99.05</v>
       </c>
       <c r="H3" t="n">
-        <v>83.33</v>
+        <v>83.25</v>
       </c>
       <c r="I3" t="n">
-        <v>62.54</v>
+        <v>62.46</v>
       </c>
       <c r="J3" t="n">
         <v>36.9</v>
@@ -673,49 +673,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30.43</v>
+        <v>0.45</v>
       </c>
       <c r="C5" t="n">
         <v>61.02</v>
       </c>
       <c r="D5" t="n">
-        <v>39.58</v>
+        <v>14.69</v>
       </c>
       <c r="E5" t="n">
-        <v>99.55</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>80.95999999999999</v>
+        <v>78.86</v>
       </c>
       <c r="G5" t="n">
+        <v>94.75</v>
+      </c>
+      <c r="H5" t="n">
         <v>94.90000000000001</v>
       </c>
-      <c r="H5" t="n">
-        <v>95.34999999999999</v>
-      </c>
       <c r="I5" t="n">
-        <v>44.53</v>
+        <v>44.08</v>
       </c>
       <c r="J5" t="n">
-        <v>65.37</v>
+        <v>48.28</v>
       </c>
       <c r="K5" t="n">
-        <v>61.77</v>
+        <v>44.83</v>
       </c>
       <c r="L5" t="n">
-        <v>44.98</v>
+        <v>16.04</v>
       </c>
       <c r="M5" t="n">
-        <v>88.45999999999999</v>
+        <v>80.06</v>
       </c>
       <c r="N5" t="n">
-        <v>50.97</v>
+        <v>33.88</v>
       </c>
       <c r="O5" t="n">
-        <v>57.42</v>
+        <v>53.82</v>
       </c>
       <c r="P5" t="n">
-        <v>93.7</v>
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="6">

--- a/criterios_por_ano.xlsx
+++ b/criterios_por_ano.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
